--- a/ExcelData/File/681328_4200_AMLProductIdList.xlsx
+++ b/ExcelData/File/681328_4200_AMLProductIdList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\ExcelData\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA215D4-E9A1-407A-A4CF-1AA8BA4B1343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0377C1-5F16-42F7-9001-E700087B97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2070" yWindow="1695" windowWidth="15375" windowHeight="7875" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -44,8 +44,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="29">
   <si>
     <t>CUSTAMLID_CH LARGE STORE</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Route Id</t>
-  </si>
-  <si>
-    <t>602426315</t>
   </si>
 </sst>
 </file>
@@ -527,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF731AC-F1C9-4E13-A781-40F5F281E094}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +953,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>602415510</v>
       </c>
@@ -981,11 +978,8 @@
       <c r="H17" s="6">
         <v>27022</v>
       </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>602401187</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>602423919</v>
       </c>
@@ -1037,7 +1031,7 @@
         <v>88476</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>602415973</v>
       </c>
@@ -1063,7 +1057,7 @@
         <v>27022</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>602425198</v>
       </c>
@@ -14394,7 +14388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB291F4-5304-47E0-B521-87F75C1D077C}">
   <dimension ref="A1:C651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C651"/>
     </sheetView>
   </sheetViews>

--- a/ExcelData/File/681328_4200_AMLProductIdList.xlsx
+++ b/ExcelData/File/681328_4200_AMLProductIdList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\ExcelData\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0377C1-5F16-42F7-9001-E700087B97AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06D996-0482-4480-8DDC-3426E3185D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
   <si>
     <t>CUSTAMLID_CH LARGE STORE</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>C470</t>
-  </si>
-  <si>
-    <t>CN01</t>
   </si>
   <si>
     <t>bottler Id</t>
@@ -524,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF731AC-F1C9-4E13-A781-40F5F281E094}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +539,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>18</v>
@@ -795,292 +792,6 @@
       </c>
       <c r="H10" s="6">
         <v>27022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>602424177</v>
-      </c>
-      <c r="B11">
-        <v>4200</v>
-      </c>
-      <c r="C11">
-        <v>681328</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6">
-        <v>101</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>88476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>602403201</v>
-      </c>
-      <c r="B12">
-        <v>4200</v>
-      </c>
-      <c r="C12">
-        <v>681328</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6">
-        <v>101</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>88476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>602426315</v>
-      </c>
-      <c r="B13">
-        <v>4200</v>
-      </c>
-      <c r="C13">
-        <v>681328</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6">
-        <v>101</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>602424821</v>
-      </c>
-      <c r="B14">
-        <v>4200</v>
-      </c>
-      <c r="C14">
-        <v>681328</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6">
-        <v>101</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>91837</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>602423488</v>
-      </c>
-      <c r="B15">
-        <v>4200</v>
-      </c>
-      <c r="C15">
-        <v>681328</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6">
-        <v>101</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>88476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>602424814</v>
-      </c>
-      <c r="B16">
-        <v>4200</v>
-      </c>
-      <c r="C16">
-        <v>681328</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6">
-        <v>238</v>
-      </c>
-      <c r="G16" s="6">
-        <v>36</v>
-      </c>
-      <c r="H16" s="6">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>602415510</v>
-      </c>
-      <c r="B17">
-        <v>4200</v>
-      </c>
-      <c r="C17">
-        <v>681328</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6">
-        <v>101</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>27022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>602401187</v>
-      </c>
-      <c r="B18">
-        <v>4200</v>
-      </c>
-      <c r="C18">
-        <v>681328</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="6">
-        <v>253</v>
-      </c>
-      <c r="G18" s="6">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>602423919</v>
-      </c>
-      <c r="B19">
-        <v>4200</v>
-      </c>
-      <c r="C19">
-        <v>681328</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="6">
-        <v>101</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>88476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>602415973</v>
-      </c>
-      <c r="B20">
-        <v>4200</v>
-      </c>
-      <c r="C20">
-        <v>681328</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="6">
-        <v>253</v>
-      </c>
-      <c r="G20" s="6">
-        <v>7</v>
-      </c>
-      <c r="H20" s="6">
-        <v>27022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>602425198</v>
-      </c>
-      <c r="B21">
-        <v>4200</v>
-      </c>
-      <c r="C21">
-        <v>681328</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="6">
-        <v>101</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>91837</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/File/681328_4200_AMLProductIdList.xlsx
+++ b/ExcelData/File/681328_4200_AMLProductIdList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\ExcelData\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06D996-0482-4480-8DDC-3426E3185D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89529B04-A475-4784-AB19-3EB4FCC601B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="21" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF731AC-F1C9-4E13-A781-40F5F281E094}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43438,8 +43438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C702"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
